--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>This file will provide na overview about the properties of the materials that will be added by the mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUTE </t>
-  </si>
-  <si>
-    <t>REFINED</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>VALUE</t>
   </si>
@@ -37,6 +28,102 @@
   </si>
   <si>
     <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>Aetherium Shard</t>
+  </si>
+  <si>
+    <t>Adamantium Ore</t>
+  </si>
+  <si>
+    <t>Starmetal ore</t>
+  </si>
+  <si>
+    <t>Golden Sap</t>
+  </si>
+  <si>
+    <t>Purple Sap</t>
+  </si>
+  <si>
+    <t>Ferrous Salts</t>
+  </si>
+  <si>
+    <t>Manganese Ore</t>
+  </si>
+  <si>
+    <t>Nickel Ore</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Raw Spidersilk</t>
+  </si>
+  <si>
+    <t>Raw Ancestor Moth Silk</t>
+  </si>
+  <si>
+    <t>Dragon Blood</t>
+  </si>
+  <si>
+    <t>REFINED MATERIAL</t>
+  </si>
+  <si>
+    <t>BRUTE  RESOURCES</t>
+  </si>
+  <si>
+    <t>REQUIRED RESOURCES</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>Rough Oak</t>
+  </si>
+  <si>
+    <t>Rough Nightwood</t>
+  </si>
+  <si>
+    <t>Rough Maple</t>
+  </si>
+  <si>
+    <t>Rough Birch</t>
+  </si>
+  <si>
+    <t>Metallic Mineral</t>
+  </si>
+  <si>
+    <t>Crystaline Mineral</t>
+  </si>
+  <si>
+    <t>Animal Material</t>
+  </si>
+  <si>
+    <t>Plant Material</t>
+  </si>
+  <si>
+    <t>Animal Product</t>
+  </si>
+  <si>
+    <t>Raw Ebonthread</t>
+  </si>
+  <si>
+    <t>Raw Akaviri Silk</t>
+  </si>
+  <si>
+    <t>Raw Cotton</t>
+  </si>
+  <si>
+    <t>Raw Ironweed</t>
+  </si>
+  <si>
+    <t>Raw Void Bloom</t>
+  </si>
+  <si>
+    <t>This file will provide an overview about the properties of the materials that will be added by the mod</t>
   </si>
 </sst>
 </file>
@@ -434,18 +521,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -453,7 +546,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -461,25 +554,212 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B8:C19">
+    <sortCondition ref="C8:C19"/>
+    <sortCondition ref="B8:B19"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:G3"/>
   </mergeCells>

--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>VALUE</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Adamantium Ore</t>
   </si>
   <si>
-    <t>Starmetal ore</t>
-  </si>
-  <si>
     <t>Golden Sap</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>This file will provide an overview about the properties of the materials that will be added by the mod</t>
+  </si>
+  <si>
+    <t>Starmetal Fragment</t>
+  </si>
+  <si>
+    <t>Dreugh Wax</t>
+  </si>
+  <si>
+    <t>Chitin Plate</t>
+  </si>
+  <si>
+    <t>Giant Sea Snake Hide</t>
+  </si>
+  <si>
+    <t>Dreugh Carapace</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +550,7 @@
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -557,10 +569,10 @@
     <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -572,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -592,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -600,159 +612,191 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>VALUE</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Dreugh Carapace</t>
+  </si>
+  <si>
+    <t>War Rose</t>
+  </si>
+  <si>
+    <t>Shadowseed</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,6 +805,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B8:C19">
     <sortCondition ref="C8:C19"/>

--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{926F6E3D-6FDB-4C4B-8045-A6A5F1EEF802}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,23 +539,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -564,7 +565,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -572,8 +573,8 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -605,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -613,7 +614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -621,7 +622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -629,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -637,7 +638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -645,7 +646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -653,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -661,7 +662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -669,7 +670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -677,7 +678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -685,7 +686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -693,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -701,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -709,7 +710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -717,7 +718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -725,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -733,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -741,7 +742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -749,7 +750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -757,7 +758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -765,7 +766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -773,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -781,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -789,7 +790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -797,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -805,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -813,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>40</v>
       </c>

--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{926F6E3D-6FDB-4C4B-8045-A6A5F1EEF802}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Materials" sheetId="2" r:id="rId2"/>
+    <sheet name="Refined Materials" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>VALUE</t>
   </si>
@@ -133,9 +134,6 @@
     <t>Chitin Plate</t>
   </si>
   <si>
-    <t>Giant Sea Snake Hide</t>
-  </si>
-  <si>
     <t>Dreugh Carapace</t>
   </si>
   <si>
@@ -143,12 +141,108 @@
   </si>
   <si>
     <t>Shadowseed</t>
+  </si>
+  <si>
+    <t>Shadow Herb</t>
+  </si>
+  <si>
+    <t>Sea Serpent Hide</t>
+  </si>
+  <si>
+    <t>This is the table for RAW MATERIALS</t>
+  </si>
+  <si>
+    <t>REQUIRED TOOLS</t>
+  </si>
+  <si>
+    <t>This is the table for REFINED MATERIALS</t>
+  </si>
+  <si>
+    <t>Golden Resin</t>
+  </si>
+  <si>
+    <t>Purple Resin</t>
+  </si>
+  <si>
+    <t>Starmetal Ingot</t>
+  </si>
+  <si>
+    <t>Nickel Ingot</t>
+  </si>
+  <si>
+    <t>Manganese Ingot</t>
+  </si>
+  <si>
+    <t>Adamantium Ingot</t>
+  </si>
+  <si>
+    <t>Ancestor Moth Silk</t>
+  </si>
+  <si>
+    <t>Akaviri Silk</t>
+  </si>
+  <si>
+    <t>Essence of War</t>
+  </si>
+  <si>
+    <t>Shadow Essence</t>
+  </si>
+  <si>
+    <t>Crystalized Dragon Blood</t>
+  </si>
+  <si>
+    <t>Distilled Dragon Blood</t>
+  </si>
+  <si>
+    <t>Dragon Heart</t>
+  </si>
+  <si>
+    <t>Aetherium Crystal</t>
+  </si>
+  <si>
+    <t>Dragon Heart Fiber</t>
+  </si>
+  <si>
+    <t>Refined Dreugh Wax</t>
+  </si>
+  <si>
+    <t>Sload Wax</t>
+  </si>
+  <si>
+    <t>Sload Soap</t>
+  </si>
+  <si>
+    <t>Colossal Black Soul Gem</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Ingot</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherial Infused Ingot</t>
+  </si>
+  <si>
+    <t>Dragon Fang</t>
+  </si>
+  <si>
+    <t>Dragon Heartscales</t>
+  </si>
+  <si>
+    <t>Spidersilk</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>Polished Black Pearl</t>
+  </si>
+  <si>
+    <t>Troll Bones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,6 +352,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,23 +636,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -565,7 +662,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -573,255 +670,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B8:C19">
     <sortCondition ref="C8:C19"/>
@@ -833,4 +682,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Files/Tables/Materials.xlsx
+++ b/Files/Tables/Materials.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>VALUE</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>Troll Bones</t>
+  </si>
+  <si>
+    <t>Swamp Leviathan Bones</t>
+  </si>
+  <si>
+    <t>Swamp Leviathan Hide</t>
+  </si>
+  <si>
+    <t>Crocodle Leather</t>
+  </si>
+  <si>
+    <t>Mithril Ore</t>
+  </si>
+  <si>
+    <t>Mithril Ingot</t>
   </si>
 </sst>
 </file>
@@ -686,15 +701,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F39"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,6 +1016,38 @@
       </c>
       <c r="C39" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1013,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1219,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G3"/>
